--- a/application/controllers/excel-templates/partner_invoice_v2.xlsx
+++ b/application/controllers/excel-templates/partner_invoice_v2.xlsx
@@ -74,9 +74,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>{service:s_description}</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>Swachh Bharat Cess</t>
+  </si>
+  <si>
+    <t>Units</t>
   </si>
 </sst>
 </file>
@@ -492,11 +492,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -533,134 +530,131 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,481 +933,459 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.5" style="3" customWidth="1"/>
-    <col min="6" max="7" width="9.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="14.5" style="3"/>
+    <col min="1" max="1" width="2.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="14.5" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="21"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="23"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="23"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="26" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="23"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="28" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="26" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="28" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="29" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="29" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="23"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="31" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="32" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="20"/>
     </row>
     <row r="11" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="33" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="29" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="33" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32" t="s">
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="35">
+        <v>0</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="38"/>
+    </row>
+    <row r="18" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="42">
+        <v>5</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="20"/>
+    </row>
+    <row r="21" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="42">
+        <v>14</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="23"/>
-    </row>
-    <row r="13" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="23"/>
-    </row>
-    <row r="14" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="38">
-        <v>0</v>
-      </c>
-      <c r="I15" s="39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="23"/>
-    </row>
-    <row r="17" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="41"/>
-    </row>
-    <row r="18" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="45">
-        <v>5</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="23"/>
-    </row>
-    <row r="20" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="23"/>
-    </row>
-    <row r="21" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="45">
-        <v>14</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="46" t="s">
+      <c r="C22" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-      <c r="B22" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="45">
+    <row r="23" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="42">
         <v>0.5</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="46" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="22" t="s">
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="46" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="23"/>
-    </row>
-    <row r="25" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="47" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12" t="s">
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="48" t="s">
+    </row>
+    <row r="26" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="46" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="49" t="s">
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="50" t="s">
+    </row>
+    <row r="27" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="49"/>
+    </row>
+    <row r="28" spans="1:9" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="50" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="52"/>
-    </row>
-    <row r="28" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-      <c r="B28" s="44" t="s">
+      <c r="C28" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="54"/>
+    </row>
+    <row r="29" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A29" s="1"/>
+      <c r="B29" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="53"/>
-    </row>
-    <row r="29" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="23"/>
-    </row>
-    <row r="30" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="56"/>
-    </row>
-    <row r="31" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
-      <c r="B31" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B29:I29"/>
     <mergeCell ref="C28:I28"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
